--- a/Team-Data/2014-15/1-15-2014-15.xlsx
+++ b/Team-Data/2014-15/1-15-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -783,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -813,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -974,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1208,7 @@
         <v>25</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1156,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="AT4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU4" t="n">
         <v>23</v>
@@ -1165,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>24</v>
@@ -1177,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="BA4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1323,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>15</v>
@@ -1338,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>8</v>
@@ -1487,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1523,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.487</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,43 +1661,43 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L7" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O7" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T7" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
@@ -1639,40 +1706,40 @@
         <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z7" t="n">
         <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
       </c>
       <c r="AF7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="n">
         <v>15</v>
       </c>
-      <c r="AG7" t="n">
-        <v>14</v>
-      </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
@@ -1684,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>13</v>
@@ -1702,10 +1769,10 @@
         <v>27</v>
       </c>
       <c r="AT7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
         <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,40 +1843,40 @@
         <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>87.2</v>
+        <v>87</v>
       </c>
       <c r="K8" t="n">
         <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>12.1</v>
@@ -1827,28 +1894,28 @@
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1869,22 +1936,22 @@
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -2021,16 +2088,16 @@
         <v>21</v>
       </c>
       <c r="AE9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH9" t="n">
         <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2087,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -2230,13 +2297,13 @@
         <v>9</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2260,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="AX10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -2501,31 +2568,31 @@
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J12" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.713</v>
+        <v>0.711</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
@@ -2534,34 +2601,34 @@
         <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V12" t="n">
         <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD12" t="n">
         <v>9</v>
@@ -2579,13 +2646,13 @@
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2627,13 +2694,13 @@
         <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2761,16 +2828,16 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -2934,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
@@ -2943,13 +3010,13 @@
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -3047,49 +3114,49 @@
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
         <v>43.2</v>
       </c>
       <c r="U15" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
         <v>4.6</v>
@@ -3098,16 +3165,16 @@
         <v>4.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
         <v>9</v>
@@ -3116,7 +3183,7 @@
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3125,28 +3192,28 @@
         <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>4</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3158,19 +3225,19 @@
         <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX15" t="n">
         <v>18</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3392,7 @@
         <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>14</v>
@@ -3334,13 +3401,13 @@
         <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -3504,13 +3571,13 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
@@ -3528,7 +3595,7 @@
         <v>27</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>9</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.525</v>
+        <v>0.513</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O18" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V18" t="n">
         <v>17.1</v>
       </c>
       <c r="W18" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y18" t="n">
         <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AB18" t="n">
         <v>98.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,28 +3735,28 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>8</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3704,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3716,16 +3783,16 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3901,7 +3968,7 @@
         <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,88 +4027,88 @@
         <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.761</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP20" t="n">
         <v>17</v>
       </c>
-      <c r="AO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
         <v>18</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AT20" t="n">
         <v>10</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4080,16 +4147,16 @@
         <v>19</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>81.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
         <v>7.3</v>
@@ -4160,49 +4227,49 @@
         <v>13.6</v>
       </c>
       <c r="P21" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.774</v>
       </c>
       <c r="R21" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T21" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="U21" t="n">
         <v>21.1</v>
       </c>
       <c r="V21" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y21" t="n">
         <v>3.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="AA21" t="n">
         <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,13 +4281,13 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
@@ -4244,7 +4311,7 @@
         <v>8</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
         <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.474</v>
+        <v>0.486</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.438</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="O22" t="n">
         <v>17.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R22" t="n">
         <v>12.2</v>
@@ -4354,25 +4421,25 @@
         <v>34.2</v>
       </c>
       <c r="T22" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U22" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W22" t="n">
         <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA22" t="n">
         <v>20.5</v>
@@ -4381,16 +4448,16 @@
         <v>98.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>16</v>
@@ -4405,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4420,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ22" t="n">
         <v>21</v>
@@ -4435,25 +4502,25 @@
         <v>2</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
         <v>0.368</v>
@@ -4524,46 +4591,46 @@
         <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,10 +4639,10 @@
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4587,13 +4654,13 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,16 +4687,16 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4978,13 +5045,13 @@
         <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
@@ -4996,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5339,13 +5406,13 @@
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
       </c>
       <c r="AU27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5354,7 +5421,7 @@
         <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="I28" t="n">
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R28" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
         <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
@@ -5461,7 +5528,7 @@
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
         <v>19.7</v>
@@ -5473,10 +5540,10 @@
         <v>101.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5497,7 +5564,7 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
@@ -5521,19 +5588,19 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5545,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="AG29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5882,7 +5949,7 @@
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5900,7 +5967,7 @@
         <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>13</v>
@@ -6091,7 +6158,7 @@
         <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-15-2014-15</t>
+          <t>2015-01-15</t>
         </is>
       </c>
     </row>
